--- a/src/main/resources/TestDateienFuerUnitTests/TestExcel_5_ZelleFehlt.xlsx
+++ b/src/main/resources/TestDateienFuerUnitTests/TestExcel_5_ZelleFehlt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510E712B-7B09-47E7-9143-5F2AD4CE80ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43F58F-A3E3-48B2-AB05-312328CD6603}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,7 +346,7 @@
   <dimension ref="B1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
